--- a/2021/scores/2D03/2D03.xlsx
+++ b/2021/scores/2D03/2D03.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0DAD74-5C3B-4EC2-8382-E4EEBB3B46B2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACD33AF-7359-4E8A-9239-465CC07A8883}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,6 +890,9 @@
       <c r="J16" t="s">
         <v>9</v>
       </c>
+      <c r="K16">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -1163,35 +1166,35 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <f>IF(C2="+",$C$28,0)</f>
+        <f t="shared" ref="C29:J30" si="0">IF(C2="+",$C$28,0)</f>
         <v>1.5</v>
       </c>
       <c r="D29">
-        <f>IF(D2="+",$C$28,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E29">
-        <f>IF(E2="+",$C$28,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="F29">
-        <f>IF(F2="+",$C$28,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="G29">
-        <f>IF(G2="+",$C$28,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H29">
-        <f>IF(H2="+",$C$28,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I29">
-        <f>IF(I2="+",$C$28,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="J29">
-        <f>IF(J2="+",$C$28,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K29">
@@ -1215,39 +1218,39 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <f>IF(C3="+",$C$28,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="D30">
-        <f>IF(D3="+",$C$28,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E30">
-        <f>IF(E3="+",$C$28,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f>IF(F3="+",$C$28,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f>IF(G3="+",$C$28,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f>IF(H3="+",$C$28,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I30">
-        <f>IF(I3="+",$C$28,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="J30">
-        <f>IF(J3="+",$C$28,0)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:K52" si="0">SUM(C30:J30)</f>
+        <f t="shared" ref="K30:K52" si="1">SUM(C30:J30)</f>
         <v>6</v>
       </c>
       <c r="L30">
@@ -1258,7 +1261,7 @@
         <v>4.1999999999999993</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:N52" si="1">ROUND(K30+M30,0)</f>
+        <f t="shared" ref="N30:N52" si="2">ROUND(K30+M30,0)</f>
         <v>10</v>
       </c>
     </row>
@@ -1267,47 +1270,47 @@
         <v>13</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:J45" si="2">IF(C4="+",$C$28,0)</f>
+        <f t="shared" ref="C31:J45" si="3">IF(C4="+",$C$28,0)</f>
         <v>0</v>
       </c>
       <c r="D31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31:M52" si="4">L31*$M$28*K31/$M$28</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <f t="shared" ref="M31:M52" si="3">L31*$M$28*K31/$M$28</f>
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1316,50 +1319,50 @@
         <v>14</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.5</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
@@ -1368,47 +1371,47 @@
         <v>15</v>
       </c>
       <c r="C33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1417,50 +1420,50 @@
         <v>16</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="I34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
       <c r="N34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -1469,50 +1472,50 @@
         <v>17</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="I35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
@@ -1521,50 +1524,50 @@
         <v>18</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="I36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
@@ -1573,50 +1576,50 @@
         <v>19</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.5</v>
       </c>
       <c r="N37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
@@ -1625,50 +1628,50 @@
         <v>20</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="I38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="N38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
@@ -1677,50 +1680,50 @@
         <v>21</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="F39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="I39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="J39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="N39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
@@ -1729,50 +1732,50 @@
         <v>22</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="I40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="J40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L40">
         <v>0.7</v>
       </c>
       <c r="M40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3999999999999986</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -1781,50 +1784,50 @@
         <v>23</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="F41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="H41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="I41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="J41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
@@ -1833,50 +1836,50 @@
         <v>24</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="F42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="H42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L42">
         <v>0.8</v>
       </c>
       <c r="M42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
       <c r="N42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -1885,50 +1888,50 @@
         <v>25</v>
       </c>
       <c r="C43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="F43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L43">
         <v>0.3</v>
       </c>
       <c r="M43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6999999999999997</v>
       </c>
       <c r="N43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -1937,50 +1940,50 @@
         <v>26</v>
       </c>
       <c r="C44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="F44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="H44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L44">
         <v>0.9</v>
       </c>
       <c r="M44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.1</v>
       </c>
       <c r="N44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
@@ -1989,47 +1992,47 @@
         <v>27</v>
       </c>
       <c r="C45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2038,50 +2041,50 @@
         <v>28</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:J52" si="4">IF(C19="+",$C$28,0)</f>
+        <f t="shared" ref="C46:J52" si="5">IF(C19="+",$C$28,0)</f>
         <v>1.5</v>
       </c>
       <c r="D46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="E46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="F46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="G46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="H46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="I46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="K46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
@@ -2090,50 +2093,50 @@
         <v>29</v>
       </c>
       <c r="C47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="D47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="E47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="F47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="G47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="H47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="I47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="J47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="K47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
@@ -2142,50 +2145,50 @@
         <v>30</v>
       </c>
       <c r="C48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="D48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="E48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="F48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="G48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="H48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="I48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="J48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="K48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L48">
         <v>0.8</v>
       </c>
       <c r="M48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="N48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
@@ -2194,50 +2197,50 @@
         <v>31</v>
       </c>
       <c r="C49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="D49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="E49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="F49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="G49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="H49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="I49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="J49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="L49">
         <v>0.6</v>
       </c>
       <c r="M49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3</v>
       </c>
       <c r="N49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
@@ -2246,50 +2249,50 @@
         <v>32</v>
       </c>
       <c r="C50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="E50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="F50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="G50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="H50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
       <c r="N50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -2298,50 +2301,50 @@
         <v>33</v>
       </c>
       <c r="C51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="D51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="E51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="F51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="G51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="H51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="I51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="J51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="K51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="N51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
@@ -2350,50 +2353,50 @@
         <v>34</v>
       </c>
       <c r="C52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="E52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="F52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="G52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="H52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="I52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
       <c r="N52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>

--- a/2021/scores/2D03/2D03.xlsx
+++ b/2021/scores/2D03/2D03.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACD33AF-7359-4E8A-9239-465CC07A8883}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C7A337-162A-432A-B4EC-11E291E4412B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="44">
   <si>
     <t>LB1</t>
   </si>
@@ -128,6 +129,30 @@
   </si>
   <si>
     <t>Бурко Михаил</t>
+  </si>
+  <si>
+    <t>LB9</t>
+  </si>
+  <si>
+    <t>LB10</t>
+  </si>
+  <si>
+    <t>LB11</t>
+  </si>
+  <si>
+    <t>LB12</t>
+  </si>
+  <si>
+    <t>LB13</t>
+  </si>
+  <si>
+    <t>LB14</t>
+  </si>
+  <si>
+    <t>выходной</t>
+  </si>
+  <si>
+    <t>н</t>
   </si>
 </sst>
 </file>
@@ -151,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,12 +184,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -447,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2404,4 +2449,945 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF74B333-1594-4A58-B9BA-AF16E2F2DAC6}">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C1" s="1">
+        <v>44235</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44242</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44249</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44256</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44268</v>
+      </c>
+      <c r="I1" s="1">
+        <v>44277</v>
+      </c>
+      <c r="J1" s="1">
+        <v>44284</v>
+      </c>
+      <c r="K1" s="1">
+        <v>44298</v>
+      </c>
+      <c r="L1" s="1">
+        <v>44305</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44312</v>
+      </c>
+      <c r="N1" s="1">
+        <v>44319</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="1">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
+        <v>44237</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44244</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44251</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44258</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44265</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44272</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44279</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44279</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44300</v>
+      </c>
+      <c r="L2" s="1">
+        <v>44307</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44314</v>
+      </c>
+      <c r="N2" s="1">
+        <v>44321</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44328</v>
+      </c>
+      <c r="P2" s="1">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2021/scores/2D03/2D03.xlsx
+++ b/2021/scores/2D03/2D03.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C7A337-162A-432A-B4EC-11E291E4412B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1787A6E8-F3A3-49D4-A336-22B671F4DEAB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="53">
   <si>
     <t>LB1</t>
   </si>
@@ -154,17 +154,53 @@
   <si>
     <t>н</t>
   </si>
+  <si>
+    <t>LB10.1</t>
+  </si>
+  <si>
+    <t>LB15</t>
+  </si>
+  <si>
+    <t>Rep</t>
+  </si>
+  <si>
+    <t>Lec</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Итоговый рейтинг</t>
+  </si>
+  <si>
+    <t>Оценка</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -203,12 +239,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:AA78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J25"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,7 +545,7 @@
     <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -530,8 +573,35 @@
       <c r="K1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -559,8 +629,25 @@
       <c r="K2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -582,16 +669,44 @@
       <c r="K3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -622,16 +737,50 @@
       <c r="K5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -656,8 +805,25 @@
       <c r="K7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -691,8 +857,33 @@
       <c r="K8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -726,8 +917,31 @@
       <c r="K9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -758,8 +972,29 @@
       <c r="K10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -787,8 +1022,17 @@
       <c r="K11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -816,8 +1060,25 @@
       <c r="K12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -851,8 +1112,31 @@
       <c r="K13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -883,8 +1167,29 @@
       <c r="J14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -909,8 +1214,21 @@
       <c r="J15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -938,8 +1256,25 @@
       <c r="K16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -964,8 +1299,25 @@
       <c r="J17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -975,8 +1327,17 @@
       <c r="K18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1010,8 +1371,31 @@
       <c r="K19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1045,8 +1429,31 @@
       <c r="K20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1080,8 +1487,33 @@
       <c r="K21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1112,8 +1544,31 @@
       <c r="K22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1135,8 +1590,19 @@
       <c r="I23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1170,8 +1636,31 @@
       <c r="K24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1193,42 +1682,73 @@
       <c r="H25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C28">
-        <v>1.5</v>
+        <v>4.375</v>
       </c>
       <c r="L28" t="s">
         <v>10</v>
       </c>
       <c r="M28">
         <f>8*C28</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="W28">
+        <f>M28</f>
+        <v>35</v>
+      </c>
+      <c r="X28" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z28">
+        <v>10</v>
+      </c>
+      <c r="AA28">
+        <f>Z28+W28+M28+K3+K3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29">
         <f t="shared" ref="C29:J30" si="0">IF(C2="+",$C$28,0)</f>
-        <v>1.5</v>
+        <v>4.375</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>4.375</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>4.375</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>4.375</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>4.375</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
@@ -1236,7 +1756,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>4.375</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
@@ -1244,31 +1764,78 @@
       </c>
       <c r="K29">
         <f>SUM(C29:J29)</f>
-        <v>9</v>
+        <v>26.25</v>
       </c>
       <c r="L29">
         <v>0.7</v>
       </c>
       <c r="M29">
         <f>L29*$M$28*K29/$M$28</f>
-        <v>6.3</v>
+        <v>18.375</v>
       </c>
       <c r="N29">
         <f>ROUND(K29+M29,0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="O29">
+        <f>IF(L2="+",$C$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29:V29" si="1">IF(M2="+",$C$28,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>4.375</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>4.375</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>4.375</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f>IF(S2="+",$C$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f>SUM(O29:V29)</f>
+        <v>17.5</v>
+      </c>
+      <c r="X29">
+        <v>0.7</v>
+      </c>
+      <c r="Y29">
+        <f>W29*X29</f>
+        <v>12.25</v>
+      </c>
+      <c r="AA29">
+        <f>Y29+M29+K2+T2+Z29</f>
+        <v>35.625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>4.375</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>4.375</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
@@ -1288,1161 +1855,2631 @@
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>4.375</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>4.375</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:K52" si="1">SUM(C30:J30)</f>
-        <v>6</v>
+        <f t="shared" ref="K30:K52" si="2">SUM(C30:J30)</f>
+        <v>17.5</v>
       </c>
       <c r="L30">
         <v>0.7</v>
       </c>
       <c r="M30">
         <f>L30*$M$28*K30/$M$28</f>
-        <v>4.1999999999999993</v>
+        <v>12.25</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:N52" si="2">ROUND(K30+M30,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N30:N52" si="3">ROUND(K30+M30,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30:O52" si="4">IF(L3="+",$C$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ref="P30:P52" si="5">IF(M3="+",$C$28,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ref="Q30:Q52" si="6">IF(N3="+",$C$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ref="R30:R52" si="7">IF(O3="+",$C$28,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ref="S30:S52" si="8">IF(P3="+",$C$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" ref="T30:T52" si="9">IF(Q3="+",$C$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" ref="U30:V45" si="10">IF(R3="+",$C$28,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="W30">
+        <f t="shared" ref="W30:W52" si="11">SUM(O30:V30)</f>
+        <v>17.5</v>
+      </c>
+      <c r="X30">
+        <v>0.7</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" ref="Y30:Y52" si="12">W30*X30</f>
+        <v>12.25</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" ref="AA30:AA52" si="13">Y30+M30+K3+T3+Z30</f>
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:J45" si="3">IF(C4="+",$C$28,0)</f>
+        <f t="shared" ref="C31:J45" si="14">IF(C4="+",$C$28,0)</f>
         <v>0</v>
       </c>
       <c r="D31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31:M52" si="15">L31*$M$28*K31/$M$28</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <f t="shared" ref="M31:M52" si="4">L31*$M$28*K31/$M$28</f>
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" ref="V31:V52" si="16">IF(S4="+",$C$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="F32">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="H32">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="K32">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
+        <f t="shared" si="2"/>
+        <v>30.625</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
+        <f t="shared" si="15"/>
+        <v>30.625</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="4"/>
-        <v>10.5</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="16"/>
+        <v>4.375</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="11"/>
+        <v>30.625</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="12"/>
+        <v>30.625</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="13"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="O33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="K34">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
+        <f t="shared" si="2"/>
+        <v>21.875</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
+        <f t="shared" si="15"/>
+        <v>21.875</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="O34">
         <f t="shared" si="4"/>
-        <v>7.5</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="16"/>
+        <v>4.375</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="11"/>
+        <v>17.5</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="12"/>
+        <v>17.5</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="13"/>
+        <v>49.375</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>17</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="D35">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="F35">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="G35">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="H35">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="J35">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="K35">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="16"/>
+        <v>4.375</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="11"/>
+        <v>30.625</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="12"/>
+        <v>30.625</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="13"/>
+        <v>83.625</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>18</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="D36">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="F36">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="G36">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="H36">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="J36">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="16"/>
+        <v>4.375</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="11"/>
+        <v>26.25</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="12"/>
+        <v>26.25</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="13"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>19</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="D37">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="E37">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="F37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G37">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="H37">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="J37">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="K37">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
+        <f t="shared" si="2"/>
+        <v>30.625</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
+        <f t="shared" si="15"/>
+        <v>30.625</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="4"/>
-        <v>10.5</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="11"/>
+        <v>21.875</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="12"/>
+        <v>21.875</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="13"/>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>20</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="D38">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="E38">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="F38">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="G38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="J38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>26.25</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38">
+        <f t="shared" si="15"/>
+        <v>26.25</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="13"/>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>21</v>
       </c>
       <c r="C39">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="D39">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="E39">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="F39">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="G39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="I39">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="J39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>26.25</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39">
+        <f t="shared" si="15"/>
+        <v>26.25</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="16"/>
+        <v>4.375</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="11"/>
+        <v>17.5</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="12"/>
+        <v>17.5</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="13"/>
+        <v>53.75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>22</v>
       </c>
       <c r="C40">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="D40">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="E40">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="F40">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="G40">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="H40">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="J40">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="L40">
         <v>0.7</v>
       </c>
       <c r="M40">
+        <f t="shared" si="15"/>
+        <v>24.5</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="4"/>
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="11"/>
+        <v>26.25</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="12"/>
+        <v>26.25</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="13"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>23</v>
       </c>
       <c r="C41">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="D41">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="E41">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="F41">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="G41">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="H41">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="J41">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="K41">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="11"/>
+        <v>26.25</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="12"/>
+        <v>26.25</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="13"/>
+        <v>61.25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>24</v>
       </c>
       <c r="C42">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="D42">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="E42">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="F42">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="G42">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="H42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J42">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="K42">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>26.25</v>
       </c>
       <c r="L42">
         <v>0.8</v>
       </c>
       <c r="M42">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="4"/>
-        <v>7.2</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="16"/>
+        <v>4.375</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="11"/>
+        <v>8.75</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="12"/>
+        <v>8.75</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="13"/>
+        <v>29.75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>25</v>
       </c>
       <c r="C43">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="D43">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="E43">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="F43">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="G43">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="H43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J43">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="K43">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>26.25</v>
       </c>
       <c r="L43">
         <v>0.3</v>
       </c>
       <c r="M43">
+        <f t="shared" si="15"/>
+        <v>7.875</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="4"/>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="10"/>
+        <v>4.375</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="16"/>
+        <v>4.375</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="11"/>
+        <v>13.125</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="12"/>
+        <v>13.125</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>26</v>
       </c>
       <c r="C44">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="D44">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="E44">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="F44">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="G44">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="H44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>4.375</v>
       </c>
       <c r="K44">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>26.25</v>
       </c>
       <c r="L44">
         <v>0.9</v>
       </c>
       <c r="M44">
+        <f t="shared" si="15"/>
+        <v>23.625</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="4"/>
-        <v>8.1</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="11"/>
+        <v>17.5</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="12"/>
+        <v>17.5</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="13"/>
+        <v>41.125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>27</v>
       </c>
       <c r="C45">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M45">
+      <c r="O45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>28</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:J52" si="5">IF(C19="+",$C$28,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="C46:J52" si="17">IF(C19="+",$C$28,0)</f>
+        <v>4.375</v>
       </c>
       <c r="D46">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="E46">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="F46">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="G46">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="H46">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="I46">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="J46">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="K46">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="U46">
+        <f t="shared" ref="U46:U52" si="18">IF(R19="+",$C$28,0)</f>
+        <v>4.375</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="16"/>
+        <v>4.375</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="11"/>
+        <v>26.25</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="12"/>
+        <v>26.25</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="13"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>29</v>
       </c>
       <c r="C47">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="D47">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="E47">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="F47">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="G47">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="H47">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="I47">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="J47">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="K47">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="18"/>
+        <v>4.375</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="16"/>
+        <v>4.375</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="11"/>
+        <v>26.25</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="12"/>
+        <v>26.25</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="13"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>30</v>
       </c>
       <c r="C48">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="D48">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="E48">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="F48">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="G48">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="H48">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="I48">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="J48">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="K48">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="L48">
         <v>0.8</v>
       </c>
       <c r="M48">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="4"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="18"/>
+        <v>4.375</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="16"/>
+        <v>4.375</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="11"/>
+        <v>30.625</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="12"/>
+        <v>30.625</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="13"/>
+        <v>78.625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>31</v>
       </c>
       <c r="C49">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="D49">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="E49">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="F49">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="G49">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="H49">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="I49">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="J49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
+        <f t="shared" si="2"/>
+        <v>30.625</v>
       </c>
       <c r="L49">
         <v>0.6</v>
       </c>
       <c r="M49">
+        <f t="shared" si="15"/>
+        <v>18.375</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="4"/>
-        <v>6.3</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="18"/>
+        <v>4.375</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="16"/>
+        <v>4.375</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="11"/>
+        <v>26.25</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="12"/>
+        <v>26.25</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="13"/>
+        <v>64.625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>32</v>
       </c>
       <c r="C50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D50">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="E50">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="F50">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="G50">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="H50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I50">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="J50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
+        <f t="shared" si="2"/>
+        <v>21.875</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50">
+        <f t="shared" si="15"/>
+        <v>21.875</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="4"/>
-        <v>7.5</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="12"/>
+        <v>4.375</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="13"/>
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>33</v>
       </c>
       <c r="C51">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="D51">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="E51">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="F51">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="G51">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="H51">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="I51">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="J51">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="K51">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4.375</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="6"/>
+        <v>4.375</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="18"/>
+        <v>4.375</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="16"/>
+        <v>4.375</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="11"/>
+        <v>26.25</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="12"/>
+        <v>26.25</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="13"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>34</v>
       </c>
       <c r="C52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D52">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="E52">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="F52">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="G52">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="H52">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="17"/>
+        <v>4.375</v>
       </c>
       <c r="I52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K52">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
+        <f t="shared" si="2"/>
+        <v>21.875</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52">
+        <f t="shared" si="15"/>
+        <v>21.875</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="O52">
         <f t="shared" si="4"/>
-        <v>7.5</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="13"/>
+        <v>21.875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="2">
+        <f>ROUND(AA29,0)</f>
+        <v>36</v>
+      </c>
+      <c r="D55" s="6" t="str">
+        <f>IF(C55&gt;=55,"Зачет","-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>2</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" ref="C56:C78" si="19">ROUND(AA30,0)</f>
+        <v>45</v>
+      </c>
+      <c r="D56" s="6" t="str">
+        <f t="shared" ref="D56:D78" si="20">IF(C56&gt;=55,"Зачет","-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D57" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+      <c r="D58" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D59" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>6</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="D60" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>7</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" si="19"/>
+        <v>84</v>
+      </c>
+      <c r="D61" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>8</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+      <c r="D62" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>9</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="19"/>
+        <v>71</v>
+      </c>
+      <c r="D63" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>10</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" si="19"/>
+        <v>31</v>
+      </c>
+      <c r="D64" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>11</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="D65" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>12</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" si="19"/>
+        <v>69</v>
+      </c>
+      <c r="D66" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>13</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" si="19"/>
+        <v>61</v>
+      </c>
+      <c r="D67" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>14</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="D68" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>15</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" si="19"/>
+        <v>39</v>
+      </c>
+      <c r="D69" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>16</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" si="19"/>
+        <v>41</v>
+      </c>
+      <c r="D70" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>17</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="2">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="D71" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>18</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="2">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+      <c r="D72" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>19</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+      <c r="D73" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>20</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="2">
+        <f t="shared" si="19"/>
+        <v>79</v>
+      </c>
+      <c r="D74" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>21</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="2">
+        <f t="shared" si="19"/>
+        <v>65</v>
+      </c>
+      <c r="D75" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>22</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="2">
+        <f t="shared" si="19"/>
+        <v>26</v>
+      </c>
+      <c r="D76" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>23</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="2">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+      <c r="D77" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>Зачет</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>24</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="2">
+        <f t="shared" si="19"/>
+        <v>22</v>
+      </c>
+      <c r="D78" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
       </c>
     </row>
   </sheetData>
@@ -2455,7 +4492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF74B333-1594-4A58-B9BA-AF16E2F2DAC6}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:P27"/>
     </sheetView>
   </sheetViews>

--- a/2021/scores/2D03/2D03.xlsx
+++ b/2021/scores/2D03/2D03.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825166FB-6194-4BEA-9A73-75DBE6C09DDF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07292E9D-F4FF-4561-9A6B-6C6DE3AABFA7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="52">
   <si>
     <t>LB1</t>
   </si>
@@ -533,10 +533,10 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C60" sqref="C60:D60"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,7 +1059,9 @@
       <c r="R10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S10" s="4"/>
+      <c r="S10" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="T10" s="4">
         <v>10</v>
       </c>
@@ -1137,6 +1139,9 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
         <v>9</v>
       </c>
       <c r="J12" t="s">
@@ -1154,7 +1159,9 @@
       <c r="S12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T12" s="4"/>
+      <c r="T12" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -2555,25 +2562,25 @@
       </c>
       <c r="V34">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="W34">
         <f t="shared" si="12"/>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="X34">
         <v>1</v>
       </c>
       <c r="Y34">
         <f t="shared" si="13"/>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="Z34">
         <v>8</v>
       </c>
       <c r="AA34">
         <f t="shared" si="9"/>
-        <v>78.2</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
@@ -2704,7 +2711,7 @@
       </c>
       <c r="H36">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I36">
         <f t="shared" si="15"/>
@@ -2716,18 +2723,18 @@
       </c>
       <c r="K36">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="L36">
         <v>0.8</v>
       </c>
       <c r="M36">
         <f t="shared" si="14"/>
-        <v>21.6</v>
+        <v>25.200000000000003</v>
       </c>
       <c r="N36">
         <f t="shared" si="11"/>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
@@ -2777,7 +2784,7 @@
       </c>
       <c r="AA36">
         <f t="shared" si="9"/>
-        <v>37.6</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
@@ -3945,7 +3952,7 @@
       </c>
       <c r="C57" s="2">
         <f t="shared" si="17"/>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D57" s="6" t="str">
         <f t="shared" si="18"/>
@@ -3977,7 +3984,7 @@
       </c>
       <c r="C59" s="2">
         <f t="shared" si="17"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D59" s="6" t="str">
         <f t="shared" si="18"/>

--- a/2021/scores/2D03/2D03.xlsx
+++ b/2021/scores/2D03/2D03.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07292E9D-F4FF-4561-9A6B-6C6DE3AABFA7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3545248C-6FD4-4505-9EB4-35865951F307}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="52">
   <si>
     <t>LB1</t>
   </si>
@@ -533,7 +533,7 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
@@ -1052,7 +1052,9 @@
       <c r="O10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="4"/>
+      <c r="P10" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="Q10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2550,7 +2552,7 @@
       </c>
       <c r="S34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T34">
         <f t="shared" si="6"/>
@@ -2566,21 +2568,21 @@
       </c>
       <c r="W34">
         <f t="shared" si="12"/>
-        <v>31.5</v>
+        <v>36</v>
       </c>
       <c r="X34">
         <v>1</v>
       </c>
       <c r="Y34">
         <f t="shared" si="13"/>
-        <v>31.5</v>
+        <v>36</v>
       </c>
       <c r="Z34">
         <v>8</v>
       </c>
       <c r="AA34">
         <f t="shared" si="9"/>
-        <v>82.7</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
@@ -3952,7 +3954,7 @@
       </c>
       <c r="C57" s="2">
         <f t="shared" si="17"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D57" s="6" t="str">
         <f t="shared" si="18"/>

--- a/2021/scores/2D03/2D03.xlsx
+++ b/2021/scores/2D03/2D03.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3545248C-6FD4-4505-9EB4-35865951F307}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F697951-FB53-47EF-BD33-783C469DF14B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="52">
   <si>
     <t>LB1</t>
   </si>
@@ -533,10 +533,10 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomRight" activeCell="C59" sqref="C59:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,13 +1149,17 @@
       <c r="J12" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="M12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="P12" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4" t="s">
@@ -1485,7 +1489,9 @@
       <c r="K19">
         <v>10</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="M19" s="4" t="s">
         <v>9</v>
       </c>
@@ -2740,7 +2746,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="P36">
         <f t="shared" si="2"/>
@@ -2756,7 +2762,7 @@
       </c>
       <c r="S36">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T36">
         <f t="shared" si="6"/>
@@ -2772,21 +2778,21 @@
       </c>
       <c r="W36">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="X36">
         <v>1</v>
       </c>
       <c r="Y36">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Z36">
         <v>7</v>
       </c>
       <c r="AA36">
         <f t="shared" si="9"/>
-        <v>46.2</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
@@ -3448,7 +3454,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="P43">
         <f t="shared" si="2"/>
@@ -3480,21 +3486,21 @@
       </c>
       <c r="W43">
         <f t="shared" si="12"/>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="X43">
         <v>1</v>
       </c>
       <c r="Y43">
         <f t="shared" si="13"/>
-        <v>27</v>
+        <v>31.5</v>
       </c>
       <c r="Z43">
         <v>7</v>
       </c>
       <c r="AA43">
         <f t="shared" si="9"/>
-        <v>72.900000000000006</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
@@ -3986,11 +3992,11 @@
       </c>
       <c r="C59" s="2">
         <f t="shared" si="17"/>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D59" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -4098,7 +4104,7 @@
       </c>
       <c r="C66" s="2">
         <f t="shared" si="17"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D66" s="6" t="str">
         <f t="shared" si="18"/>

--- a/2021/scores/2D03/2D03.xlsx
+++ b/2021/scores/2D03/2D03.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F697951-FB53-47EF-BD33-783C469DF14B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A10647-D6A2-4AB8-80D0-6F46D36B5ABC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="52">
   <si>
     <t>LB1</t>
   </si>
@@ -533,10 +533,10 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C59" sqref="C59:D59"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,7 +677,9 @@
       <c r="O3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="4"/>
+      <c r="P3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
         <v>9</v>
@@ -1844,7 +1846,7 @@
       </c>
       <c r="S27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T27">
         <f t="shared" si="6"/>
@@ -1860,21 +1862,21 @@
       </c>
       <c r="W27">
         <f t="shared" ref="W27:W46" si="12">SUM(O27:V27)</f>
-        <v>18</v>
+        <v>22.5</v>
       </c>
       <c r="X27">
         <v>0.7</v>
       </c>
       <c r="Y27">
         <f t="shared" ref="Y27:Y46" si="13">W27*X27</f>
-        <v>12.6</v>
+        <v>15.749999999999998</v>
       </c>
       <c r="Z27">
         <v>8</v>
       </c>
       <c r="AA27">
         <f t="shared" si="9"/>
-        <v>53.2</v>
+        <v>56.349999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
@@ -3848,11 +3850,11 @@
       </c>
       <c r="C50" s="2">
         <f t="shared" si="17"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D50" s="6" t="str">
         <f t="shared" ref="D50:D69" si="18">IF(C50&gt;=55,"Зачет","-")</f>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">

--- a/2021/scores/2D03/2D03.xlsx
+++ b/2021/scores/2D03/2D03.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A10647-D6A2-4AB8-80D0-6F46D36B5ABC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE882276-FB08-4B94-A00C-89B006BB5E9B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,10 +533,10 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C50" sqref="C50:D50"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,7 +1040,7 @@
         <v>9</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>9</v>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="AA34">
         <f t="shared" si="9"/>
-        <v>87.2</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="C57" s="2">
         <f t="shared" si="17"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D57" s="6" t="str">
         <f t="shared" si="18"/>

--- a/2021/scores/2D03/2D03.xlsx
+++ b/2021/scores/2D03/2D03.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE882276-FB08-4B94-A00C-89B006BB5E9B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9839ABBF-45CF-49D7-AFBB-4E3E47AF2497}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,10 +533,10 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2021/scores/2D03/2D03.xlsx
+++ b/2021/scores/2D03/2D03.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9839ABBF-45CF-49D7-AFBB-4E3E47AF2497}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B5E4E8-3F20-4093-9D43-2701553628A2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="52">
   <si>
     <t>LB1</t>
   </si>
@@ -536,7 +536,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49:D69"/>
+      <selection pane="bottomRight" activeCell="C67" sqref="C67:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,7 +1262,9 @@
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+      <c r="T14" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1536,8 +1538,17 @@
       <c r="G20" t="s">
         <v>9</v>
       </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
       <c r="I20" t="s">
         <v>9</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
@@ -1549,7 +1560,9 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="T20" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -2998,7 +3011,7 @@
       </c>
       <c r="AA38">
         <f t="shared" si="9"/>
-        <v>50.3</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
@@ -3531,7 +3544,7 @@
       </c>
       <c r="H44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I44">
         <f t="shared" si="15"/>
@@ -3539,22 +3552,22 @@
       </c>
       <c r="J44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="K44">
         <f t="shared" si="10"/>
-        <v>22.5</v>
+        <v>31.5</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44">
         <f t="shared" si="14"/>
-        <v>22.5</v>
+        <v>31.5</v>
       </c>
       <c r="N44">
         <f t="shared" si="11"/>
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
@@ -3604,7 +3617,7 @@
       </c>
       <c r="AA44">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
@@ -4026,11 +4039,11 @@
       </c>
       <c r="C61" s="2">
         <f t="shared" si="17"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D61" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -4122,11 +4135,11 @@
       </c>
       <c r="C67" s="2">
         <f t="shared" si="17"/>
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D67" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
